--- a/biology/Botanique/Acacia_aneura/Acacia_aneura.xlsx
+++ b/biology/Botanique/Acacia_aneura/Acacia_aneura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia aneura, communément appelé Mulga ou vrai Mulga, est un arbre à croissance lente pouvant atteindre 10 mètres de haut originaire des régions arides de l'intérieur de l'Australie.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la différence de beaucoup d'autres espèces, il est dépourvu d'épines et ses phyllodes peuvent mesurer 8 centimètres de long. Les fleurs jaunes apparaissent au printemps ou après la pluie. Les fruits, des gousses, sont consommés par les aborigènes qui récupèrent les graines pour faire des pates. L'arbre peut être aussi parasité par un insecte et développer des galles aux extrémités des branches; Ces galles sont aussi consommées par les aborigènes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la différence de beaucoup d'autres espèces, il est dépourvu d'épines et ses phyllodes peuvent mesurer 8 centimètres de long. Les fleurs jaunes apparaissent au printemps ou après la pluie. Les fruits, des gousses, sont consommés par les aborigènes qui récupèrent les graines pour faire des pates. L'arbre peut être aussi parasité par un insecte et développer des galles aux extrémités des branches; Ces galles sont aussi consommées par les aborigènes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les zones où on le rencontre couvrent à peu près 20 % du territoire australien soit environ 1 500 000 km2. Il a besoin de pluies aussi bien en été qu'en hiver pour pousser[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les zones où on le rencontre couvrent à peu près 20 % du territoire australien soit environ 1 500 000 km2. Il a besoin de pluies aussi bien en été qu'en hiver pour pousser.
 </t>
         </is>
       </c>
